--- a/data/Shunt.xlsx
+++ b/data/Shunt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <r>
       <t>Минимальный</t>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>ФОЛ 220 кВ Тихорецк – Крыловская</t>
+  </si>
+  <si>
+    <t>ФО АТ1 Крыловская</t>
+  </si>
+  <si>
+    <t>ФО АТ2 Крыловская</t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -318,11 +324,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -371,6 +392,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:J33"/>
     </sheetView>
   </sheetViews>
@@ -849,13 +876,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
@@ -1002,8 +1034,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2">
         <v>20</v>
       </c>
@@ -1011,10 +1043,31 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="2">
+        <v>21</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:B15"/>
+    <mergeCell ref="B1:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>